--- a/xlsx/L2-5.xlsx
+++ b/xlsx/L2-5.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2EBC10-1B3F-4657-BEB4-6304A8D41122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E94C24-CB17-4697-B595-723062C7E7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="L1" sheetId="1" r:id="rId1"/>
+    <sheet name="L2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>perc</t>
-  </si>
-  <si>
     <t>UCL</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -86,9 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$B$1</c:f>
+              <c:f>'L2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>perc</c:v>
+                  <c:v>%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -236,7 +242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$41</c:f>
+              <c:f>'L2'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -308,7 +314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$B$2:$B$41</c:f>
+              <c:f>'L2'!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
@@ -390,7 +396,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$D$1</c:f>
+              <c:f>'L2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -414,7 +420,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$41</c:f>
+              <c:f>'L2'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -486,7 +492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$D$2:$D$41</c:f>
+              <c:f>'L2'!$D$2:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
@@ -568,7 +574,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$E$1</c:f>
+              <c:f>'L2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -592,7 +598,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$41</c:f>
+              <c:f>'L2'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -664,7 +670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$E$2:$E$41</c:f>
+              <c:f>'L2'!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
@@ -746,7 +752,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$C$1</c:f>
+              <c:f>'L2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -770,7 +776,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$41</c:f>
+              <c:f>'L2'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -842,7 +848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$C$2:$C$41</c:f>
+              <c:f>'L2'!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2258,7 +2264,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,43 +2273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>10.153041308968742</v>
       </c>
-      <c r="C2" s="1">
-        <f>MEDIAN(B:B)</f>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C22" si="0">MEDIAN(B:B)</f>
         <v>10.755229138321406</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>H$3+(H$2* 3 )</f>
         <v>18.43298454500875</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>H$3-(H$2* 3 )</f>
         <v>3.0774737316340612</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>STDEV(B2:B22)</f>
@@ -2311,26 +2317,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>9.0954059070930224</v>
       </c>
-      <c r="C3" s="1">
-        <f>MEDIAN(B:B)</f>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D22" si="0">H$3+(H$2* 3 )</f>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D22" si="1">H$3+(H$2* 3 )</f>
         <v>18.43298454500875</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E22" si="1">H$3-(H$2* 3 )</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E22" si="2">H$3-(H$2* 3 )</f>
         <v>3.0774737316340612</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f>MEDIAN(B:B)</f>
@@ -2338,382 +2344,382 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>12.763306022315497</v>
       </c>
-      <c r="C4" s="1">
-        <f>MEDIAN(B:B)</f>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.422122431344475</v>
+      </c>
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.755229138321406</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10.422122431344475</v>
-      </c>
-      <c r="C5" s="1">
-        <f>MEDIAN(B:B)</f>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11.820478726730311</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.075992652295966</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8.2559808611488119</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.6746491065817146</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="C6" s="1">
-        <f>MEDIAN(B:B)</f>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11.839062750424805</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11.468182808283862</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>19.862482715889598</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.820478726730311</v>
-      </c>
-      <c r="C7" s="1">
-        <f>MEDIAN(B:B)</f>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12.058326930862188</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.5430589252308042</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.9447878457229955</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.075992652295966</v>
-      </c>
-      <c r="C8" s="1">
-        <f>MEDIAN(B:B)</f>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11.392461865701488</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.2143805512688601</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10.811351562427321</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.2559808611488119</v>
-      </c>
-      <c r="C9" s="1">
-        <f>MEDIAN(B:B)</f>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>11.663875118481251</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
         <v>10.755229138321406</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>18.43298454500875</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12.693425653894661</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0774737316340612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.916898026992877</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>10.755229138321406</v>
+      </c>
+      <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8.6746491065817146</v>
-      </c>
-      <c r="C10" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
         <v>18.43298454500875</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11.839062750424805</v>
-      </c>
-      <c r="C11" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.468182808283862</v>
-      </c>
-      <c r="C12" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>19.862482715889598</v>
-      </c>
-      <c r="C13" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12.058326930862188</v>
-      </c>
-      <c r="C14" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.5430589252308042</v>
-      </c>
-      <c r="C15" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8.9447878457229955</v>
-      </c>
-      <c r="C16" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>11.392461865701488</v>
-      </c>
-      <c r="C17" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8.2143805512688601</v>
-      </c>
-      <c r="C18" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10.811351562427321</v>
-      </c>
-      <c r="C19" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>11.663875118481251</v>
-      </c>
-      <c r="C20" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12.693425653894661</v>
-      </c>
-      <c r="C21" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0774737316340612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8.916898026992877</v>
-      </c>
-      <c r="C22" s="1">
-        <f>MEDIAN(B:B)</f>
-        <v>10.755229138321406</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>18.43298454500875</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
+      <c r="E22" s="3">
+        <f t="shared" si="2"/>
         <v>3.0774737316340612</v>
       </c>
     </row>
